--- a/BRICIU CATALIN/Test_1_laboratore_note/Test_!.xlsx
+++ b/BRICIU CATALIN/Test_1_laboratore_note/Test_!.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="16275" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="16275" windowHeight="7995" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="T1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="T2" sheetId="2" r:id="rId2"/>
+    <sheet name="Mote proiect" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="34">
   <si>
     <t>Albu Adrian</t>
   </si>
@@ -102,15 +102,38 @@
     <t>7-8</t>
   </si>
   <si>
-    <t>tul</t>
+    <t>Nota 1</t>
+  </si>
+  <si>
+    <t>Nota 2</t>
+  </si>
+  <si>
+    <t>Nota 3</t>
+  </si>
+  <si>
+    <t>Nota 4</t>
+  </si>
+  <si>
+    <t>Media</t>
+  </si>
+  <si>
+    <t>+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -138,7 +161,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -147,6 +170,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -443,8 +467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -711,8 +735,8 @@
       <c r="A24" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>28</v>
+      <c r="B24" s="1">
+        <v>6</v>
       </c>
       <c r="C24" s="1">
         <v>7</v>
@@ -725,24 +749,573 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="28.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <f xml:space="preserve"> AVERAGE(B2,C2,D2,E2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="F3" t="e">
+        <f t="shared" ref="F3:F24" si="0" xml:space="preserve"> AVERAGE(B3,C3,D3,E3)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="1"/>
+      <c r="F4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="F5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>9</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="F7" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="F8" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="F9" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="1">
+        <v>6</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>9</v>
+      </c>
+      <c r="E10">
+        <v>7</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="1">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>8</v>
+      </c>
+      <c r="E11">
+        <v>9</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>9.25</v>
+      </c>
+      <c r="G11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="1">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1">
+        <v>8</v>
+      </c>
+      <c r="D12">
+        <v>9</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>9.25</v>
+      </c>
+      <c r="G12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="F13" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="F14" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="1">
+        <v>5</v>
+      </c>
+      <c r="C15" s="1">
+        <v>7</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15">
+        <v>6</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>5.75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="1">
+        <v>10</v>
+      </c>
+      <c r="C16" s="1">
+        <v>10</v>
+      </c>
+      <c r="D16">
+        <v>10</v>
+      </c>
+      <c r="E16">
+        <v>10</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="G16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="F17" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="F18" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="F19" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="F20" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="1"/>
+      <c r="F21" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="1">
+        <v>10</v>
+      </c>
+      <c r="C22" s="1">
+        <v>9</v>
+      </c>
+      <c r="D22">
+        <v>10</v>
+      </c>
+      <c r="E22">
+        <v>10</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>9.75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="F23" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="F24" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>